--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam15-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam15-Itga5.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>35.995988</v>
+        <v>31.749936</v>
       </c>
       <c r="H2">
-        <v>107.987964</v>
+        <v>95.249808</v>
       </c>
       <c r="I2">
-        <v>0.5613901502831141</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="J2">
-        <v>0.561390150283114</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N2">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O2">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P2">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q2">
-        <v>1226.41017616571</v>
+        <v>353.9116471018561</v>
       </c>
       <c r="R2">
-        <v>11037.6915854914</v>
+        <v>3185.204823916704</v>
       </c>
       <c r="S2">
-        <v>0.2903209230111765</v>
+        <v>0.1375987118501673</v>
       </c>
       <c r="T2">
-        <v>0.2903209230111765</v>
+        <v>0.1375987118501673</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>35.995988</v>
+        <v>31.749936</v>
       </c>
       <c r="H3">
-        <v>107.987964</v>
+        <v>95.249808</v>
       </c>
       <c r="I3">
-        <v>0.5613901502831141</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="J3">
-        <v>0.561390150283114</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O3">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P3">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q3">
-        <v>996.566817786036</v>
+        <v>879.012757878192</v>
       </c>
       <c r="R3">
-        <v>8969.101360074324</v>
+        <v>7911.114820903727</v>
       </c>
       <c r="S3">
-        <v>0.2359114462720015</v>
+        <v>0.3417548537166183</v>
       </c>
       <c r="T3">
-        <v>0.2359114462720015</v>
+        <v>0.3417548537166183</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>35.995988</v>
+        <v>31.749936</v>
       </c>
       <c r="H4">
-        <v>107.987964</v>
+        <v>95.249808</v>
       </c>
       <c r="I4">
-        <v>0.5613901502831141</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="J4">
-        <v>0.561390150283114</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>12.377873</v>
       </c>
       <c r="O4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q4">
-        <v>148.5179226578414</v>
+        <v>130.998891855376</v>
       </c>
       <c r="R4">
-        <v>1336.661303920572</v>
+        <v>1178.990026698384</v>
       </c>
       <c r="S4">
-        <v>0.03515778099993605</v>
+        <v>0.05093157832104753</v>
       </c>
       <c r="T4">
-        <v>0.03515778099993604</v>
+        <v>0.05093157832104753</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>61.999422</v>
       </c>
       <c r="I5">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="J5">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N5">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O5">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P5">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q5">
-        <v>704.1221932584284</v>
+        <v>230.366003041004</v>
       </c>
       <c r="R5">
-        <v>6337.099739325857</v>
+        <v>2073.294027369036</v>
       </c>
       <c r="S5">
-        <v>0.1666827371724449</v>
+        <v>0.08956491127682824</v>
       </c>
       <c r="T5">
-        <v>0.1666827371724449</v>
+        <v>0.08956491127682824</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>61.999422</v>
       </c>
       <c r="I6">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="J6">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O6">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P6">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q6">
         <v>572.1616039275779</v>
@@ -818,10 +818,10 @@
         <v>5149.454435348202</v>
       </c>
       <c r="S6">
-        <v>0.1354444770534626</v>
+        <v>0.2224529775023261</v>
       </c>
       <c r="T6">
-        <v>0.1354444770534626</v>
+        <v>0.2224529775023261</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>61.999422</v>
       </c>
       <c r="I7">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="J7">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>12.377873</v>
       </c>
       <c r="O7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q7">
         <v>85.26899684326733</v>
@@ -880,10 +880,10 @@
         <v>767.420971589406</v>
       </c>
       <c r="S7">
-        <v>0.02018523194676229</v>
+        <v>0.03315207120892755</v>
       </c>
       <c r="T7">
-        <v>0.02018523194676229</v>
+        <v>0.03315207120892755</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>22.370752</v>
       </c>
       <c r="I8">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="J8">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N8">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O8">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P8">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q8">
-        <v>254.0627388926364</v>
+        <v>83.12110914939734</v>
       </c>
       <c r="R8">
-        <v>2286.564650033728</v>
+        <v>748.089982344576</v>
       </c>
       <c r="S8">
-        <v>0.06014278933061578</v>
+        <v>0.03231698544021794</v>
       </c>
       <c r="T8">
-        <v>0.06014278933061579</v>
+        <v>0.03231698544021794</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>22.370752</v>
       </c>
       <c r="I9">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="J9">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O9">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P9">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q9">
         <v>206.448462461248</v>
@@ -1004,10 +1004,10 @@
         <v>1858.036162151232</v>
       </c>
       <c r="S9">
-        <v>0.0488713395736609</v>
+        <v>0.08026591588815324</v>
       </c>
       <c r="T9">
-        <v>0.04887133957366091</v>
+        <v>0.08026591588815324</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>22.370752</v>
       </c>
       <c r="I10">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="J10">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>12.377873</v>
       </c>
       <c r="O10">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P10">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q10">
         <v>30.76692524116623</v>
@@ -1066,10 +1066,10 @@
         <v>276.902327170496</v>
       </c>
       <c r="S10">
-        <v>0.007283274639939328</v>
+        <v>0.01196199479571372</v>
       </c>
       <c r="T10">
-        <v>0.007283274639939328</v>
+        <v>0.01196199479571372</v>
       </c>
     </row>
   </sheetData>
